--- a/ArticleManage/main_working_folder/output_folders/Data 102 Effects of Microporosity and/Data102_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 102 Effects of Microporosity and/Data102_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="NPC-600" sheetId="1" r:id="rId1"/>
-    <sheet name="NPC-700" sheetId="2" r:id="rId4"/>
-    <sheet name="NPC-800" sheetId="3" r:id="rId5"/>
-    <sheet name="NPC-900" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3 NPC-600  0-1-0-500 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 NPC-700  0-1-0-500 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 NPC-800  0-1-0-500 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 NPC-900  0-1-0-500 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki NPC-600</a:t>
+              <a:t>Izoterma adsorpcji probki NPC-600 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'NPC-600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 NPC-600  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'NPC-600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 NPC-600  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki NPC-700</a:t>
+              <a:t>Izoterma adsorpcji probki NPC-700 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'NPC-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 NPC-700  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'NPC-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 NPC-700  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki NPC-800</a:t>
+              <a:t>Izoterma adsorpcji probki NPC-800 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'NPC-800'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 NPC-800  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'NPC-800'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 NPC-800  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki NPC-900</a:t>
+              <a:t>Izoterma adsorpcji probki NPC-900 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'NPC-900'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 NPC-900  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'NPC-900'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 NPC-900  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 102 Effects of Microporosity and/Data102_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 102 Effects of Microporosity and/Data102_all_graphs_excel.xlsx
@@ -4013,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,437 +4034,349 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0028</v>
+        <v>0.9867</v>
       </c>
       <c r="B3" s="0">
-        <v>30.7709</v>
+        <v>82.9528</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0227</v>
+        <v>0.9738</v>
       </c>
       <c r="B4" s="0">
-        <v>39.7145</v>
+        <v>71.5373</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0413</v>
+        <v>0.951</v>
       </c>
       <c r="B5" s="0">
-        <v>41.4936</v>
+        <v>63.9269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0586</v>
+        <v>0.9271</v>
       </c>
       <c r="B6" s="0">
-        <v>41.7093</v>
+        <v>60.1218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0785</v>
+        <v>0.9033</v>
       </c>
       <c r="B7" s="0">
-        <v>43.758</v>
+        <v>59.3607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.098</v>
+        <v>0.8762</v>
       </c>
       <c r="B8" s="0">
-        <v>43.5543</v>
+        <v>56.3166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1146</v>
+        <v>0.8534</v>
       </c>
       <c r="B9" s="0">
-        <v>44.378</v>
+        <v>56.3166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1334</v>
+        <v>0.8306</v>
       </c>
       <c r="B10" s="0">
-        <v>44.3187</v>
+        <v>55.5556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1546</v>
+        <v>0.8013</v>
       </c>
       <c r="B11" s="0">
-        <v>44.4589</v>
+        <v>54.7945</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1732</v>
+        <v>0.7786</v>
       </c>
       <c r="B12" s="0">
-        <v>44.6206</v>
+        <v>54.0335</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1917</v>
+        <v>0.7536</v>
       </c>
       <c r="B13" s="0">
-        <v>44.5667</v>
+        <v>54.0335</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2103</v>
+        <v>0.7287</v>
       </c>
       <c r="B14" s="0">
-        <v>46.6154</v>
+        <v>53.2725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2296</v>
+        <v>0.7037</v>
       </c>
       <c r="B15" s="0">
-        <v>46.5723</v>
+        <v>53.2725</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2475</v>
+        <v>0.6777</v>
       </c>
       <c r="B16" s="0">
-        <v>46.4537</v>
+        <v>53.2725</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2661</v>
+        <v>0.6528</v>
       </c>
       <c r="B17" s="0">
-        <v>46.238</v>
+        <v>51.7504</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2847</v>
+        <v>0.6278</v>
       </c>
       <c r="B18" s="0">
-        <v>45.8606</v>
+        <v>50.9893</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3033</v>
+        <v>0.6018</v>
       </c>
       <c r="B19" s="0">
-        <v>46.9209</v>
+        <v>51.7504</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3219</v>
+        <v>0.5779</v>
       </c>
       <c r="B20" s="0">
-        <v>47.6398</v>
+        <v>50.2283</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3409</v>
+        <v>0.5508</v>
       </c>
       <c r="B21" s="0">
-        <v>47.4915</v>
+        <v>50.2283</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3591</v>
+        <v>0.5269</v>
       </c>
       <c r="B22" s="0">
-        <v>48.6641</v>
+        <v>50.2283</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3777</v>
+        <v>0.502</v>
       </c>
       <c r="B23" s="0">
-        <v>48.1789</v>
+        <v>49.4673</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3968</v>
+        <v>0.4771</v>
       </c>
       <c r="B24" s="0">
-        <v>48.0747</v>
+        <v>49.4673</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4151</v>
+        <v>0.4532</v>
       </c>
       <c r="B25" s="0">
-        <v>48.3866</v>
+        <v>49.4673</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4335</v>
+        <v>0.4261</v>
       </c>
       <c r="B26" s="0">
-        <v>48.8259</v>
+        <v>49.4673</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4521</v>
+        <v>0.4011</v>
       </c>
       <c r="B27" s="0">
-        <v>47.8231</v>
+        <v>47.9452</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4707</v>
+        <v>0.3773</v>
       </c>
       <c r="B28" s="0">
-        <v>48.718</v>
+        <v>47.9452</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.4892</v>
+        <v>0.3512</v>
       </c>
       <c r="B29" s="0">
-        <v>48.9553</v>
+        <v>47.9452</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5078</v>
+        <v>0.3263</v>
       </c>
       <c r="B30" s="0">
-        <v>49.2302</v>
+        <v>47.1842</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5264</v>
+        <v>0.3144</v>
       </c>
       <c r="B31" s="0">
-        <v>49.1827</v>
+        <v>47.1842</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.546</v>
+        <v>0.2623</v>
       </c>
       <c r="B32" s="0">
-        <v>49.4189</v>
+        <v>47.1842</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5636</v>
+        <v>0.2623</v>
       </c>
       <c r="B33" s="0">
-        <v>50.4356</v>
+        <v>47.1842</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.5807</v>
+        <v>0.2363</v>
       </c>
       <c r="B34" s="0">
-        <v>50.1438</v>
+        <v>47.1842</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6017</v>
+        <v>0.2103</v>
       </c>
       <c r="B35" s="0">
-        <v>50.4864</v>
+        <v>46.4231</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.623</v>
+        <v>0.1831</v>
       </c>
       <c r="B36" s="0">
-        <v>51.3463</v>
+        <v>44.9011</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.6395</v>
+        <v>0.156</v>
       </c>
       <c r="B37" s="0">
-        <v>51.5934</v>
+        <v>44.9011</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.6576</v>
+        <v>0.1333</v>
       </c>
       <c r="B38" s="0">
-        <v>51.9624</v>
+        <v>44.9011</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.6769</v>
+        <v>0.104</v>
       </c>
       <c r="B39" s="0">
-        <v>51.4137</v>
+        <v>44.14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.6955</v>
+        <v>0.0779</v>
       </c>
       <c r="B40" s="0">
-        <v>51.6294</v>
+        <v>42.618</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.7141</v>
+        <v>0.053</v>
       </c>
       <c r="B41" s="0">
-        <v>52.2763</v>
+        <v>42.618</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.7318</v>
+        <v>0.0389</v>
       </c>
       <c r="B42" s="0">
-        <v>52.2062</v>
+        <v>42.618</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.7546</v>
+        <v>0.0302</v>
       </c>
       <c r="B43" s="0">
-        <v>52.8694</v>
+        <v>41.8569</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.7732</v>
+        <v>0.0183</v>
       </c>
       <c r="B44" s="0">
-        <v>53.3187</v>
+        <v>40.3349</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.7918</v>
+        <v>0.0031</v>
       </c>
       <c r="B45" s="0">
-        <v>53.5702</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8104</v>
-      </c>
-      <c r="B46" s="0">
-        <v>54.99</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8289</v>
-      </c>
-      <c r="B47" s="0">
-        <v>54.7069</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8479</v>
-      </c>
-      <c r="B48" s="0">
-        <v>54.3313</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.8664</v>
-      </c>
-      <c r="B49" s="0">
-        <v>55.2835</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.8842</v>
-      </c>
-      <c r="B50" s="0">
-        <v>57.1168</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9034</v>
-      </c>
-      <c r="B51" s="0">
-        <v>56.9129</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.922</v>
-      </c>
-      <c r="B52" s="0">
-        <v>58.5483</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9405</v>
-      </c>
-      <c r="B53" s="0">
-        <v>61.3607</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9591</v>
-      </c>
-      <c r="B54" s="0">
-        <v>65.1385</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9752</v>
-      </c>
-      <c r="B55" s="0">
-        <v>75.0894</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.9887</v>
-      </c>
-      <c r="B56" s="0">
-        <v>82.018</v>
-      </c>
-    </row>
-    <row r="57"/>
+        <v>38.0518</v>
+      </c>
+    </row>
+    <row r="46"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4473,7 +4385,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4494,325 +4406,357 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0011</v>
+        <v>0.9878</v>
       </c>
       <c r="B3" s="0">
-        <v>33.0508</v>
+        <v>117.1994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0082</v>
+        <v>0.9748</v>
       </c>
       <c r="B4" s="0">
-        <v>66.8526</v>
+        <v>104.2618</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0319</v>
+        <v>0.9488</v>
       </c>
       <c r="B5" s="0">
-        <v>73.0667</v>
+        <v>95.1294</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0586</v>
+        <v>0.9271</v>
       </c>
       <c r="B6" s="0">
-        <v>75.3153</v>
+        <v>92.0852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0857</v>
+        <v>0.9021</v>
       </c>
       <c r="B7" s="0">
-        <v>77.0154</v>
+        <v>89.8021</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1114</v>
+        <v>0.8783</v>
       </c>
       <c r="B8" s="0">
-        <v>78.4659</v>
+        <v>89.8021</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1394</v>
+        <v>0.8533</v>
       </c>
       <c r="B9" s="0">
-        <v>80.0093</v>
+        <v>89.0411</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.165</v>
+        <v>0.8273</v>
       </c>
       <c r="B10" s="0">
-        <v>79.3447</v>
+        <v>88.2801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1942</v>
+        <v>0.8045</v>
       </c>
       <c r="B11" s="0">
-        <v>80.3645</v>
+        <v>88.2801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2207</v>
+        <v>0.7785</v>
       </c>
       <c r="B12" s="0">
-        <v>83.3452</v>
+        <v>87.519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2485</v>
+        <v>0.7525</v>
       </c>
       <c r="B13" s="0">
-        <v>82.4577</v>
+        <v>86.758</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2763</v>
+        <v>0.7275</v>
       </c>
       <c r="B14" s="0">
-        <v>80.0293</v>
+        <v>87.519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3052</v>
+        <v>0.7026</v>
       </c>
       <c r="B15" s="0">
-        <v>82.0096</v>
+        <v>87.519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3294</v>
+        <v>0.6765</v>
       </c>
       <c r="B16" s="0">
-        <v>84.4211</v>
+        <v>85.997</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3557</v>
+        <v>0.6516</v>
       </c>
       <c r="B17" s="0">
-        <v>83.9362</v>
+        <v>85.997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.383</v>
+        <v>0.6277</v>
       </c>
       <c r="B18" s="0">
-        <v>84.0924</v>
+        <v>85.997</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4102</v>
+        <v>0.6028</v>
       </c>
       <c r="B19" s="0">
-        <v>84.6177</v>
+        <v>85.2359</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4374</v>
+        <v>0.5768</v>
       </c>
       <c r="B20" s="0">
-        <v>85.0187</v>
+        <v>85.2359</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4647</v>
+        <v>0.5507</v>
       </c>
       <c r="B21" s="0">
-        <v>84.4871</v>
+        <v>85.997</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4916</v>
+        <v>0.5236</v>
       </c>
       <c r="B22" s="0">
-        <v>84.7728</v>
+        <v>85.2359</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5189</v>
+        <v>0.5008</v>
       </c>
       <c r="B23" s="0">
-        <v>85.1688</v>
+        <v>85.2359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5464</v>
+        <v>0.4759</v>
       </c>
       <c r="B24" s="0">
-        <v>86.1455</v>
+        <v>84.4749</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5737</v>
+        <v>0.452</v>
       </c>
       <c r="B25" s="0">
-        <v>85.4783</v>
+        <v>83.7139</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.601</v>
+        <v>0.4249</v>
       </c>
       <c r="B26" s="0">
-        <v>84.7506</v>
+        <v>83.7139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6303</v>
+        <v>0.4</v>
       </c>
       <c r="B27" s="0">
-        <v>85.9549</v>
+        <v>83.7139</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6564</v>
+        <v>0.3761</v>
       </c>
       <c r="B28" s="0">
-        <v>85.0778</v>
+        <v>82.9528</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6847</v>
+        <v>0.349</v>
       </c>
       <c r="B29" s="0">
-        <v>86.177</v>
+        <v>83.7139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7101</v>
+        <v>0.3262</v>
       </c>
       <c r="B30" s="0">
-        <v>85.5912</v>
+        <v>82.9528</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7382</v>
+        <v>0.3121</v>
       </c>
       <c r="B31" s="0">
-        <v>85.9605</v>
+        <v>82.9528</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7666</v>
+        <v>0.2612</v>
       </c>
       <c r="B32" s="0">
-        <v>86.1879</v>
+        <v>80.6697</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7949</v>
+        <v>0.234</v>
       </c>
       <c r="B33" s="0">
-        <v>86.1231</v>
+        <v>81.4307</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8218</v>
+        <v>0.2102</v>
       </c>
       <c r="B34" s="0">
-        <v>86.9047</v>
+        <v>81.4307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8504</v>
+        <v>0.1842</v>
       </c>
       <c r="B35" s="0">
-        <v>87.1018</v>
+        <v>79.9087</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8776</v>
+        <v>0.156</v>
       </c>
       <c r="B36" s="0">
-        <v>87.35</v>
+        <v>79.9087</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9032</v>
+        <v>0.1299</v>
       </c>
       <c r="B37" s="0">
-        <v>88.4124</v>
+        <v>77.6256</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9295</v>
+        <v>0.1028</v>
       </c>
       <c r="B38" s="0">
-        <v>91.4882</v>
+        <v>76.8645</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9548</v>
+        <v>0.0768</v>
       </c>
       <c r="B39" s="0">
-        <v>95.0744</v>
+        <v>76.8645</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9834</v>
+        <v>0.0518</v>
       </c>
       <c r="B40" s="0">
-        <v>109.6136</v>
+        <v>75.3425</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9979</v>
+        <v>0.0399</v>
       </c>
       <c r="B41" s="0">
-        <v>117.0263</v>
+        <v>73.8204</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9704</v>
+        <v>0.0291</v>
       </c>
       <c r="B42" s="0">
-        <v>101.2177</v>
-      </c>
-    </row>
-    <row r="43"/>
+        <v>73.0594</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0193</v>
+      </c>
+      <c r="B43" s="0">
+        <v>71.5373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0106</v>
+      </c>
+      <c r="B44" s="0">
+        <v>69.2542</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="B45" s="0">
+        <v>63.9269</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>-0.0001</v>
+      </c>
+      <c r="B46" s="0">
+        <v>31.9635</v>
+      </c>
+    </row>
+    <row r="47"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4821,7 +4765,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4842,301 +4786,333 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0157</v>
+        <v>0.9898</v>
       </c>
       <c r="B3" s="0">
-        <v>137.0806</v>
+        <v>182.6484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0436</v>
+        <v>0.9725</v>
       </c>
       <c r="B4" s="0">
-        <v>146.1968</v>
+        <v>171.9939</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0712</v>
+        <v>0.9508</v>
       </c>
       <c r="B5" s="0">
-        <v>147.9438</v>
+        <v>167.4277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0977</v>
+        <v>0.9269</v>
       </c>
       <c r="B6" s="0">
-        <v>150.3142</v>
+        <v>164.3836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1247</v>
+        <v>0.902</v>
       </c>
       <c r="B7" s="0">
-        <v>150.274</v>
+        <v>164.3836</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1518</v>
+        <v>0.8781</v>
       </c>
       <c r="B8" s="0">
-        <v>153.0366</v>
+        <v>164.3836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1788</v>
+        <v>0.851</v>
       </c>
       <c r="B9" s="0">
-        <v>154.2099</v>
+        <v>164.3836</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2059</v>
+        <v>0.8271</v>
       </c>
       <c r="B10" s="0">
-        <v>154.0653</v>
+        <v>162.8615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2329</v>
+        <v>0.8044</v>
       </c>
       <c r="B11" s="0">
-        <v>154.4773</v>
+        <v>162.8615</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.7783</v>
       </c>
       <c r="B12" s="0">
-        <v>154.9454</v>
+        <v>161.3394</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2857</v>
+        <v>0.7512</v>
       </c>
       <c r="B13" s="0">
-        <v>157.659</v>
+        <v>161.3394</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3157</v>
+        <v>0.7263</v>
       </c>
       <c r="B14" s="0">
-        <v>156.4828</v>
+        <v>161.3394</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3428</v>
+        <v>0.6992</v>
       </c>
       <c r="B15" s="0">
-        <v>156.1971</v>
+        <v>162.1005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3698</v>
+        <v>0.6775</v>
       </c>
       <c r="B16" s="0">
-        <v>156.5844</v>
+        <v>162.1005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3969</v>
+        <v>0.6514</v>
       </c>
       <c r="B17" s="0">
-        <v>156.5893</v>
+        <v>161.3394</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4239</v>
+        <v>0.6265</v>
       </c>
       <c r="B18" s="0">
-        <v>157.1003</v>
+        <v>160.5784</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.451</v>
+        <v>0.6005</v>
       </c>
       <c r="B19" s="0">
-        <v>157.1167</v>
+        <v>159.0563</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.478</v>
+        <v>0.5766</v>
       </c>
       <c r="B20" s="0">
-        <v>158.4824</v>
+        <v>159.8174</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5051</v>
+        <v>0.5495</v>
       </c>
       <c r="B21" s="0">
-        <v>159.2287</v>
+        <v>159.8174</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5321</v>
+        <v>0.5224</v>
       </c>
       <c r="B22" s="0">
-        <v>157.8089</v>
+        <v>160.5784</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5592</v>
+        <v>0.4985</v>
       </c>
       <c r="B23" s="0">
-        <v>158.8909</v>
+        <v>160.5784</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5862</v>
+        <v>0.4779</v>
       </c>
       <c r="B24" s="0">
-        <v>158.9403</v>
+        <v>159.8174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6132</v>
+        <v>0.4486</v>
       </c>
       <c r="B25" s="0">
-        <v>159.9332</v>
+        <v>159.8174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6403</v>
+        <v>0.4226</v>
       </c>
       <c r="B26" s="0">
-        <v>158.9908</v>
+        <v>159.8174</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6673</v>
+        <v>0.3987</v>
       </c>
       <c r="B27" s="0">
-        <v>159.3924</v>
+        <v>159.8174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6944</v>
+        <v>0.3749</v>
       </c>
       <c r="B28" s="0">
-        <v>159.4512</v>
+        <v>159.8174</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7214</v>
+        <v>0.3499</v>
       </c>
       <c r="B29" s="0">
-        <v>159.7551</v>
+        <v>157.5342</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7485</v>
+        <v>0.325</v>
       </c>
       <c r="B30" s="0">
-        <v>159.451</v>
+        <v>157.5342</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7755</v>
+        <v>0.3163</v>
       </c>
       <c r="B31" s="0">
-        <v>159.8419</v>
+        <v>156.7732</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8026</v>
+        <v>0.2621</v>
       </c>
       <c r="B32" s="0">
-        <v>160.4382</v>
+        <v>155.2511</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8296</v>
+        <v>0.2068</v>
       </c>
       <c r="B33" s="0">
-        <v>160.9558</v>
+        <v>156.7732</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8567</v>
+        <v>0.1818</v>
       </c>
       <c r="B34" s="0">
-        <v>161.5711</v>
+        <v>154.4901</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8837</v>
+        <v>0.159</v>
       </c>
       <c r="B35" s="0">
-        <v>163.0097</v>
+        <v>154.4901</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.9107</v>
+        <v>0.1048</v>
       </c>
       <c r="B36" s="0">
-        <v>163.6494</v>
+        <v>151.446</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9378</v>
+        <v>0.0766</v>
       </c>
       <c r="B37" s="0">
-        <v>164.8582</v>
+        <v>149.9239</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.966</v>
+        <v>0.0517</v>
       </c>
       <c r="B38" s="0">
-        <v>169.2777</v>
+        <v>147.6408</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9888</v>
+        <v>0.0408</v>
       </c>
       <c r="B39" s="0">
-        <v>177.8579</v>
-      </c>
-    </row>
-    <row r="40"/>
+        <v>146.1187</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0322</v>
+      </c>
+      <c r="B40" s="0">
+        <v>144.5967</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0202</v>
+      </c>
+      <c r="B41" s="0">
+        <v>142.3135</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>-0.0002</v>
+      </c>
+      <c r="B42" s="0">
+        <v>54.7945</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0083</v>
+      </c>
+      <c r="B43" s="0">
+        <v>140.0304</v>
+      </c>
+    </row>
+    <row r="44"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5145,7 +5121,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5166,394 +5142,394 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0013</v>
+        <v>0.9925</v>
       </c>
       <c r="B3" s="0">
-        <v>202.8618</v>
+        <v>425.4186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0011</v>
+        <v>0.9774</v>
       </c>
       <c r="B4" s="0">
-        <v>165.4862</v>
+        <v>409.4368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0017</v>
+        <v>0.9524</v>
       </c>
       <c r="B5" s="0">
-        <v>118.7771</v>
+        <v>404.1096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0002</v>
+        <v>0.9286</v>
       </c>
       <c r="B6" s="0">
-        <v>92.6496</v>
+        <v>401.8265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0002</v>
+        <v>0.9036</v>
       </c>
       <c r="B7" s="0">
-        <v>62.9421</v>
+        <v>398.7823</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0004</v>
+        <v>0.8787</v>
       </c>
       <c r="B8" s="0">
-        <v>8.7507</v>
+        <v>396.4992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0024</v>
+        <v>0.8516</v>
       </c>
       <c r="B9" s="0">
-        <v>232.56</v>
+        <v>394.9772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0084</v>
+        <v>0.8277</v>
       </c>
       <c r="B10" s="0">
-        <v>251.9135</v>
+        <v>394.2161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0008</v>
+        <v>0.8028</v>
       </c>
       <c r="B11" s="0">
-        <v>-9.8858</v>
+        <v>394.2161</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0007</v>
+        <v>0.78</v>
       </c>
       <c r="B12" s="0">
-        <v>47.2624</v>
+        <v>392.6941</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0209</v>
+        <v>0.754</v>
       </c>
       <c r="B13" s="0">
-        <v>276.6691</v>
+        <v>391.172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0426</v>
+        <v>0.7269</v>
       </c>
       <c r="B14" s="0">
-        <v>298.6958</v>
+        <v>390.411</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0725</v>
+        <v>0.7041</v>
       </c>
       <c r="B15" s="0">
-        <v>321.3805</v>
+        <v>390.411</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0973</v>
+        <v>0.677</v>
       </c>
       <c r="B16" s="0">
-        <v>334.8604</v>
+        <v>389.6499</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1243</v>
+        <v>0.652</v>
       </c>
       <c r="B17" s="0">
-        <v>343.6211</v>
+        <v>388.8889</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1514</v>
+        <v>0.6271</v>
       </c>
       <c r="B18" s="0">
-        <v>353.3033</v>
+        <v>387.3668</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1784</v>
+        <v>0.6021</v>
       </c>
       <c r="B19" s="0">
-        <v>359.21</v>
+        <v>387.3668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2048</v>
+        <v>0.5761</v>
       </c>
       <c r="B20" s="0">
-        <v>363.5287</v>
+        <v>386.6058</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2327</v>
+        <v>0.5501</v>
       </c>
       <c r="B21" s="0">
-        <v>369.1604</v>
+        <v>386.6058</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2598</v>
+        <v>0.5262</v>
       </c>
       <c r="B22" s="0">
-        <v>371.5688</v>
+        <v>385.8447</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2865</v>
+        <v>0.5002</v>
       </c>
       <c r="B23" s="0">
-        <v>376.2992</v>
+        <v>385.8447</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3136</v>
+        <v>0.4774</v>
       </c>
       <c r="B24" s="0">
-        <v>376.4397</v>
+        <v>384.3227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3406</v>
+        <v>0.4503</v>
       </c>
       <c r="B25" s="0">
-        <v>378.4861</v>
+        <v>382.0396</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3677</v>
+        <v>0.4503</v>
       </c>
       <c r="B26" s="0">
-        <v>380.2183</v>
+        <v>382.0396</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.3953</v>
+        <v>0.4254</v>
       </c>
       <c r="B27" s="0">
-        <v>380.832</v>
+        <v>381.2785</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4217</v>
+        <v>0.4004</v>
       </c>
       <c r="B28" s="0">
-        <v>383.0594</v>
+        <v>380.5175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.4498</v>
+        <v>0.3267</v>
       </c>
       <c r="B29" s="0">
-        <v>382.827</v>
+        <v>377.4734</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.4758</v>
+        <v>0.3137</v>
       </c>
       <c r="B30" s="0">
-        <v>385.1523</v>
+        <v>375.9513</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5035</v>
+        <v>0.1814</v>
       </c>
       <c r="B31" s="0">
-        <v>384.0725</v>
+        <v>359.9696</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.5313</v>
+        <v>0.1554</v>
       </c>
       <c r="B32" s="0">
-        <v>385.5138</v>
+        <v>353.8813</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5604</v>
+        <v>0.0795</v>
       </c>
       <c r="B33" s="0">
-        <v>388.155</v>
+        <v>324.9619</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.5874</v>
+        <v>0.0503</v>
       </c>
       <c r="B34" s="0">
-        <v>390.4028</v>
+        <v>306.6971</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6144</v>
+        <v>0.0405</v>
       </c>
       <c r="B35" s="0">
-        <v>390.264</v>
+        <v>299.0868</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.6415</v>
+        <v>0.0286</v>
       </c>
       <c r="B36" s="0">
-        <v>391.3529</v>
+        <v>287.6712</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.6686</v>
+        <v>0.0189</v>
       </c>
       <c r="B37" s="0">
-        <v>388.7871</v>
+        <v>275.4947</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.6956</v>
+        <v>0.0091</v>
       </c>
       <c r="B38" s="0">
-        <v>393.2777</v>
+        <v>258.7519</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.7226</v>
+        <v>0.007</v>
       </c>
       <c r="B39" s="0">
-        <v>393.0343</v>
+        <v>252.6636</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.7509</v>
+        <v>0.0038</v>
       </c>
       <c r="B40" s="0">
-        <v>391.8158</v>
+        <v>238.204</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.7771</v>
+        <v>0.0016</v>
       </c>
       <c r="B41" s="0">
-        <v>392.5834</v>
+        <v>224.5053</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8037</v>
+        <v>0.0017</v>
       </c>
       <c r="B42" s="0">
-        <v>396.9494</v>
+        <v>213.0898</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.8299</v>
+        <v>0.0006</v>
       </c>
       <c r="B43" s="0">
-        <v>396.2801</v>
+        <v>200.1522</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.8578</v>
+        <v>0.0006</v>
       </c>
       <c r="B44" s="0">
-        <v>395.5913</v>
+        <v>187.9756</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.8849</v>
+        <v>0.0007</v>
       </c>
       <c r="B45" s="0">
-        <v>397.6118</v>
+        <v>171.9939</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.9136</v>
+        <v>0.0007</v>
       </c>
       <c r="B46" s="0">
-        <v>399.302</v>
+        <v>156.7732</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.9407</v>
+        <v>-0.0004</v>
       </c>
       <c r="B47" s="0">
-        <v>401.9377</v>
+        <v>144.5967</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.9697</v>
+        <v>-0.0014</v>
       </c>
       <c r="B48" s="0">
-        <v>410.2273</v>
+        <v>133.9422</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.9862</v>
+        <v>-0.0014</v>
       </c>
       <c r="B49" s="0">
-        <v>420.3349</v>
+        <v>124.0487</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>1.0006</v>
+        <v>-0.0003</v>
       </c>
       <c r="B50" s="0">
-        <v>427.9808</v>
+        <v>114.1553</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>-0.0004</v>
+        <v>-0.0003</v>
       </c>
       <c r="B51" s="0">
-        <v>153.7291</v>
+        <v>101.9787</v>
       </c>
     </row>
     <row r="52">
@@ -5561,26 +5537,50 @@
         <v>-0.0003</v>
       </c>
       <c r="B52" s="0">
-        <v>134.7032</v>
+        <v>90.5632</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.0008</v>
+        <v>-0.0002</v>
       </c>
       <c r="B53" s="0">
-        <v>106.5449</v>
+        <v>80.6697</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.0019</v>
+        <v>-0.0002</v>
       </c>
       <c r="B54" s="0">
-        <v>78.3866</v>
-      </c>
-    </row>
-    <row r="55"/>
+        <v>70.0152</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>-0.0002</v>
+      </c>
+      <c r="B55" s="0">
+        <v>55.5556</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>-0.0012</v>
+      </c>
+      <c r="B56" s="0">
+        <v>21.309</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>-0.0001</v>
+      </c>
+      <c r="B57" s="0">
+        <v>3.0441</v>
+      </c>
+    </row>
+    <row r="58"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 102 Effects of Microporosity and/Data102_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 102 Effects of Microporosity and/Data102_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3 NPC-600  0-1-0-500 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 3 NPC-700  0-1-0-500 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 3 NPC-800  0-1-0-500 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 3 NPC-900  0-1-0-500 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3 NPC-600  0&amp;1&amp;0&amp;500 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 NPC-700  0&amp;1&amp;0&amp;500 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 NPC-800  0&amp;1&amp;0&amp;500 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 NPC-900  0&amp;1&amp;0&amp;500 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 NPC-600  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 NPC-600  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 NPC-600  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 NPC-600  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -482,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 NPC-700  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 NPC-700  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 NPC-700  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 NPC-700  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -796,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 NPC-800  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 NPC-800  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 NPC-800  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 NPC-800  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1110,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 NPC-900  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 NPC-900  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 NPC-900  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 NPC-900  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
